--- a/xlsx/绿党 (美国)_intext.xlsx
+++ b/xlsx/绿党 (美国)_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="119">
   <si>
     <t>绿党 (美国)</t>
   </si>
@@ -29,7 +29,7 @@
     <t>华盛顿哥伦比亚特区</t>
   </si>
   <si>
-    <t>政策_政策_美國_绿党 (美国)</t>
+    <t>政策_政策_美国_绿党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%92%E5%B9%B4%E7%BF%BC</t>
@@ -47,19 +47,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>綠色政治</t>
+    <t>绿色政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>生態社會主義</t>
+    <t>生态社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%85%89%E8%AD%9C</t>
   </si>
   <si>
-    <t>政治光譜</t>
+    <t>政治光谱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A6%E7%BF%BC</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%94%BF%E9%BB%A8%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際政黨組織</t>
+    <t>国际政党组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E7%BB%BF%E5%85%9A</t>
@@ -83,31 +83,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2</t>
   </si>
   <si>
-    <t>綠色</t>
+    <t>绿色</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%83%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>美國參議院</t>
+    <t>美国参议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9C%BE%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>美國眾議院</t>
+    <t>美国众议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%95%B7</t>
   </si>
   <si>
-    <t>州長</t>
+    <t>州长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>美國政治</t>
+    <t>美国政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E5%85%9A%E5%88%97%E8%A1%A8</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>美國選舉</t>
+    <t>美国选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>環境主義</t>
+    <t>环境主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%89%E6%A0%B9%E6%B0%91%E4%B8%BB</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5%E5%B9%B3%E7%AD%89</t>
   </si>
   <si>
-    <t>性別平等</t>
+    <t>性别平等</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%85%83</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>共和黨 (美國)</t>
+    <t>共和党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E6%B3%95%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>憲法黨 (美國)</t>
+    <t>宪法党 (美国)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/American_Party_(1969)</t>
@@ -233,13 +233,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E9%BB%A8</t>
   </si>
   <si>
-    <t>美國的黨</t>
+    <t>美国的党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%98%E7%B5%90%E9%BB%A8</t>
   </si>
   <si>
-    <t>美國團結黨</t>
+    <t>美国团结党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E4%BA%BA%E9%AA%91%E5%A3%AB%E8%A7%A3%E6%94%BE%E5%85%9A</t>
@@ -293,7 +293,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E5%B9%B3%E8%88%87%E8%87%AA%E7%94%B1%E9%BB%A8</t>
   </si>
   <si>
-    <t>和平與自由黨</t>
+    <t>和平与自由党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%9B%E6%AD%A5%E5%8A%B3%E5%B7%A5%E5%85%9A</t>
@@ -341,13 +341,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9%E5%B9%B3%E7%AD%89%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>社會主義平等黨 (美國)</t>
+    <t>社会主义平等党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9%E5%B7%A5%E4%BA%BA%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>社會主義工人黨 (美國)</t>
+    <t>社会主义工人党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%BA%BA%E4%B8%96%E7%95%8C%E5%85%9A</t>
@@ -363,9 +363,6 @@
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>美国政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%BB%BF%E5%85%9A</t>
@@ -2427,7 +2424,7 @@
         <v>115</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2453,10 +2450,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -2482,10 +2479,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F61" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
